--- a/hello.xlsx
+++ b/hello.xlsx
@@ -11,14 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Need to install urllib2 for Python 3.5.1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,21 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>43266.7033557054</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>